--- a/main/template_Cyrus Rugs.xlsx
+++ b/main/template_Cyrus Rugs.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4800" yWindow="2300" windowWidth="28800" windowHeight="17500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Timesheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Weekly Timesheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -209,12 +209,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -602,7 +602,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -653,32 +653,32 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" s="26">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="25" t="inlineStr">
+      <c r="B5" s="27" t="inlineStr">
         <is>
           <t>For:</t>
         </is>
       </c>
-      <c r="D5" s="27" t="inlineStr">
+      <c r="D5" s="25" t="inlineStr">
         <is>
           <t>Cyrus Rugs</t>
         </is>
       </c>
       <c r="F5" s="7" t="n"/>
-      <c r="G5" s="25" t="n"/>
+      <c r="G5" s="27" t="n"/>
       <c r="H5" s="10" t="n"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="26">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="25" t="inlineStr">
+      <c r="B6" s="27" t="inlineStr">
         <is>
           <t>Invoice:</t>
         </is>
       </c>
-      <c r="D6" s="27" t="n">
-        <v>350</v>
+      <c r="D6" s="25" t="n">
+        <v>500</v>
       </c>
       <c r="F6" s="7" t="n"/>
-      <c r="G6" s="25" t="n"/>
+      <c r="G6" s="27" t="n"/>
       <c r="H6" s="11" t="n"/>
     </row>
     <row r="7" ht="13" customHeight="1" s="26">
@@ -733,7 +733,7 @@
       <c r="A9" s="2" t="n"/>
       <c r="B9" s="16" t="inlineStr">
         <is>
-          <t>2023/05/01</t>
+          <t>2023/12/11</t>
         </is>
       </c>
       <c r="C9" s="17" t="inlineStr">
@@ -741,29 +741,13 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="D9" s="18" t="inlineStr">
-        <is>
-          <t>09:20</t>
-        </is>
-      </c>
-      <c r="E9" s="19" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="F9" s="20" t="inlineStr">
-        <is>
-          <t>1:00</t>
-        </is>
-      </c>
-      <c r="G9" s="21" t="inlineStr">
-        <is>
-          <t>05:15</t>
-        </is>
-      </c>
+      <c r="D9" s="18" t="inlineStr"/>
+      <c r="E9" s="19" t="inlineStr"/>
+      <c r="F9" s="20" t="inlineStr"/>
+      <c r="G9" s="21" t="inlineStr"/>
       <c r="H9" s="22" t="inlineStr">
         <is>
-          <t>7:25</t>
+          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -771,7 +755,7 @@
       <c r="A10" s="2" t="n"/>
       <c r="B10" s="16" t="inlineStr">
         <is>
-          <t>2023/05/02</t>
+          <t>2023/12/12</t>
         </is>
       </c>
       <c r="C10" s="17" t="inlineStr">
@@ -779,29 +763,13 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="D10" s="18" t="inlineStr">
-        <is>
-          <t>09:02</t>
-        </is>
-      </c>
-      <c r="E10" s="19" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="F10" s="20" t="inlineStr">
-        <is>
-          <t>1:00</t>
-        </is>
-      </c>
-      <c r="G10" s="21" t="inlineStr">
-        <is>
-          <t>05:03</t>
-        </is>
-      </c>
+      <c r="D10" s="18" t="inlineStr"/>
+      <c r="E10" s="19" t="inlineStr"/>
+      <c r="F10" s="20" t="inlineStr"/>
+      <c r="G10" s="21" t="inlineStr"/>
       <c r="H10" s="22" t="inlineStr">
         <is>
-          <t>7:31</t>
+          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -809,7 +777,7 @@
       <c r="A11" s="2" t="n"/>
       <c r="B11" s="16" t="inlineStr">
         <is>
-          <t>2023/05/03</t>
+          <t>2023/12/13</t>
         </is>
       </c>
       <c r="C11" s="17" t="inlineStr">
@@ -817,13 +785,29 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr"/>
-      <c r="E11" s="19" t="inlineStr"/>
-      <c r="F11" s="20" t="inlineStr"/>
-      <c r="G11" s="21" t="inlineStr"/>
+      <c r="D11" s="18" t="inlineStr">
+        <is>
+          <t>09:39</t>
+        </is>
+      </c>
+      <c r="E11" s="19" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F11" s="20" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="G11" s="21" t="inlineStr">
+        <is>
+          <t>06:11</t>
+        </is>
+      </c>
       <c r="H11" s="22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>8:02</t>
         </is>
       </c>
     </row>
@@ -831,7 +815,7 @@
       <c r="A12" s="2" t="n"/>
       <c r="B12" s="16" t="inlineStr">
         <is>
-          <t>2023/05/04</t>
+          <t>2023/12/14</t>
         </is>
       </c>
       <c r="C12" s="17" t="inlineStr">
@@ -853,7 +837,7 @@
       <c r="A13" s="2" t="n"/>
       <c r="B13" s="16" t="inlineStr">
         <is>
-          <t>2023/05/05</t>
+          <t>2023/12/15</t>
         </is>
       </c>
       <c r="C13" s="17" t="inlineStr">
@@ -875,7 +859,7 @@
       <c r="A14" s="2" t="n"/>
       <c r="B14" s="16" t="inlineStr">
         <is>
-          <t>2023/05/06</t>
+          <t>2023/12/16</t>
         </is>
       </c>
       <c r="C14" s="17" t="inlineStr">
@@ -897,7 +881,7 @@
       <c r="A15" s="2" t="n"/>
       <c r="B15" s="16" t="inlineStr">
         <is>
-          <t>2023/05/07</t>
+          <t>2023/12/17</t>
         </is>
       </c>
       <c r="C15" s="17" t="inlineStr">
@@ -939,7 +923,7 @@
       </c>
       <c r="H17" s="4" t="inlineStr">
         <is>
-          <t>14:56</t>
+          <t>08:02</t>
         </is>
       </c>
     </row>
@@ -972,7 +956,7 @@
         </is>
       </c>
       <c r="H19" s="5" t="n">
-        <v>448</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" ht="13" customHeight="1" s="26">
